--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khanh\Github\vnmese_name_correction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$151</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -532,8 +540,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +604,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -642,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,9 +690,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,6 +725,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,14 +901,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -930,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -950,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -970,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1170,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1470,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1570,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1590,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1610,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1650,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1690,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1710,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1730,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1790,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1810,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1830,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1850,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1890,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1910,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1930,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1950,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1970,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1990,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2010,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2030,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2050,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2110,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2150,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2170,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2190,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2230,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2250,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2270,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2290,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2310,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2330,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2370,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2390,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2410,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2430,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2470,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2490,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2510,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2530,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2550,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2570,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2590,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2610,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2630,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2690,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2710,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2730,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2750,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2790,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2810,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2830,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2850,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2870,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2890,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2930,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2950,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2970,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2990,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3010,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3050,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3070,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3090,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3110,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3130,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3150,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3170,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3210,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -3250,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3270,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3290,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3310,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3330,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3350,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3370,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3390,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3410,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3430,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3450,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3470,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3490,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -3510,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3530,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3550,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3570,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3590,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -3610,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -3630,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3650,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3670,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3690,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3710,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3730,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3750,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3770,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3790,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3810,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3830,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3850,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3870,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3890,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3911,6 +3938,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F151">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>